--- a/media/data - Sample.xlsx
+++ b/media/data - Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Web_Development\wamp64\www\Github Projects\politianalytica_project\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0CFC8-9674-4CFC-B0C4-19522E1F4F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D12C2-F92E-47CA-9CFB-F2F4C6CD2A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Party</t>
   </si>
@@ -41,15 +41,6 @@
     <t>Avg. GDP during PM Tenure</t>
   </si>
   <si>
-    <t>SL NO</t>
-  </si>
-  <si>
-    <t>Policies</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Lokh Sabha Seats</t>
   </si>
   <si>
@@ -71,26 +62,23 @@
     <t>xx</t>
   </si>
   <si>
-    <t>AAAAAAA</t>
-  </si>
-  <si>
-    <t>BBBBBB</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>AAAAAAAAAAdsfsdfsdf</t>
-  </si>
-  <si>
-    <t>Heading</t>
+    <t>SL_NO</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>📌</t>
+  </si>
+  <si>
+    <t>asfsdgdfhfgh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,42 +100,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -178,11 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,26 +169,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,55 +426,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -506,63 +487,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>